--- a/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="6" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +902,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>45.17</v>
+        <v>45.16</v>
       </c>
       <c r="B3" s="6">
-        <v>45.17</v>
+        <v>45.16</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
@@ -922,13 +922,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +985,7 @@
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1071,6 +1071,7 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1078,89 +1079,47 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="7">
-        <v>42018</v>
+        <v>42019</v>
       </c>
       <c r="D3" s="7">
         <v>42019</v>
       </c>
       <c r="E3" s="10"/>
-      <c r="F3" s="6">
+      <c r="F3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>45.16</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>10045.16</v>
+      </c>
+      <c r="L3" s="9">
+        <v>10045.16</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
         <v>100</v>
       </c>
-      <c r="G3" s="8">
-        <v>9900</v>
-      </c>
-      <c r="H3" s="6">
-        <v>41.94</v>
-      </c>
-      <c r="I3" s="6">
-        <v>100</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>141.94</v>
-      </c>
-      <c r="L3" s="6">
-        <v>141.94</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>141.94</v>
-      </c>
       <c r="Q3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42019</v>
-      </c>
-      <c r="D4" s="7">
-        <v>42019</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8">
-        <v>9900</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3.23</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>9903.23</v>
-      </c>
-      <c r="L4" s="9">
-        <v>9903.23</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0</v>
+        <v>988.49</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1133,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1142,7 @@
     <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -1238,13 +1197,13 @@
         <v>63</v>
       </c>
       <c r="E2" s="9">
-        <v>10045.17</v>
+        <v>10045.16</v>
       </c>
       <c r="F2" s="8">
         <v>10000</v>
       </c>
       <c r="G2" s="6">
-        <v>45.17</v>
+        <v>45.16</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -1335,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1374,7 +1333,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="20">
-        <v>10045.17</v>
+        <v>10045.16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>#</t>
   </si>
@@ -207,10 +207,22 @@
     <t>3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC</t>
   </si>
   <si>
-    <t>specifiedDueDateFees-Flat</t>
-  </si>
-  <si>
     <t>Repayment</t>
+  </si>
+  <si>
+    <t>selectcharges</t>
+  </si>
+  <si>
+    <t>clickonplusbutton</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>insertdate</t>
+  </si>
+  <si>
+    <t>SpecifiedDueDateFees-Flat,$</t>
   </si>
 </sst>
 </file>
@@ -321,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,6 +373,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -662,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,66 +755,82 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="A9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="17">
         <v>42018</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="11">
-        <v>42005</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>49</v>
+      <c r="A13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="B14" s="11">
+        <v>42005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B17" s="11">
         <v>42005</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -847,7 +879,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A7" sqref="A7:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,13 +954,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="6">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -970,7 +1002,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1130,7 @@
         <v>45.16</v>
       </c>
       <c r="I3" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J3" s="6">
         <v>0</v>
@@ -1133,7 +1165,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1226,7 @@
         <v>42019</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9">
         <v>10045.16</v>
@@ -1294,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/3532-RBI-EI-DB-SAR-REC-NON-RNI-CTRFD-SAR-MD-TR-1-SP-FLAT-WaiveCharge-PREPAY-PERIODIC-Newcreateloan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="6" r:id="rId1"/>
@@ -228,7 +233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,6 +392,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -434,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,9 +475,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,6 +527,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -680,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -999,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,14 +1060,15 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1062,23 +1105,24 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -1103,10 +1147,11 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="O2" s="6"/>
       <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1136,21 +1181,22 @@
         <v>0</v>
       </c>
       <c r="K3" s="9">
-        <v>10045.16</v>
+        <v>45.16</v>
       </c>
       <c r="L3" s="9">
         <v>10045.16</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
+      <c r="M3" s="9"/>
       <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>100</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>988.49</v>
       </c>
     </row>
